--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/C1qa-Cspg4.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/C1qa-Cspg4.xlsx
@@ -534,10 +534,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>4.569458333333333</v>
+        <v>0.01249966666666667</v>
       </c>
       <c r="H2">
-        <v>13.708375</v>
+        <v>0.037499</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.293362666666667</v>
+        <v>2.423077</v>
       </c>
       <c r="N2">
-        <v>3.880088</v>
+        <v>7.269231</v>
       </c>
       <c r="O2">
-        <v>0.02138321956175446</v>
+        <v>0.03932631260408408</v>
       </c>
       <c r="P2">
-        <v>0.02138321956175446</v>
+        <v>0.03932631260408408</v>
       </c>
       <c r="Q2">
-        <v>5.909966815222222</v>
+        <v>0.03028765480766666</v>
       </c>
       <c r="R2">
-        <v>53.189701337</v>
+        <v>0.272588893269</v>
       </c>
       <c r="S2">
-        <v>0.02138321956175446</v>
+        <v>0.03932631260408408</v>
       </c>
       <c r="T2">
-        <v>0.02138321956175446</v>
+        <v>0.03932631260408408</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,10 +596,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>4.569458333333333</v>
+        <v>0.01249966666666667</v>
       </c>
       <c r="H3">
-        <v>13.708375</v>
+        <v>0.037499</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -620,22 +620,22 @@
         <v>48.2731</v>
       </c>
       <c r="O3">
-        <v>0.2660337333139169</v>
+        <v>0.2611559628478186</v>
       </c>
       <c r="P3">
-        <v>0.2660337333139169</v>
+        <v>0.2611559628478186</v>
       </c>
       <c r="Q3">
-        <v>73.52730635694444</v>
+        <v>0.2011325529888889</v>
       </c>
       <c r="R3">
-        <v>661.7457572125001</v>
+        <v>1.8101929769</v>
       </c>
       <c r="S3">
-        <v>0.2660337333139169</v>
+        <v>0.2611559628478186</v>
       </c>
       <c r="T3">
-        <v>0.2660337333139169</v>
+        <v>0.2611559628478186</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,10 +658,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>4.569458333333333</v>
+        <v>0.01249966666666667</v>
       </c>
       <c r="H4">
-        <v>13.708375</v>
+        <v>0.037499</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -682,22 +682,22 @@
         <v>129.30162</v>
       </c>
       <c r="O4">
-        <v>0.7125830471243286</v>
+        <v>0.6995177245480974</v>
       </c>
       <c r="P4">
-        <v>0.7125830471243286</v>
+        <v>0.6995177245480974</v>
       </c>
       <c r="Q4">
-        <v>196.9461216741667</v>
+        <v>0.5387423831533333</v>
       </c>
       <c r="R4">
-        <v>1772.5150950675</v>
+        <v>4.84868144838</v>
       </c>
       <c r="S4">
-        <v>0.7125830471243286</v>
+        <v>0.6995177245480974</v>
       </c>
       <c r="T4">
-        <v>0.7125830471243286</v>
+        <v>0.6995177245480974</v>
       </c>
     </row>
   </sheetData>
